--- a/Data/RawData/YPE_Data/YPE_58_SawmillMountain/Digital Data_YPE58/YPE_PILAdata_Plot_58.xlsx
+++ b/Data/RawData/YPE_Data/YPE_58_SawmillMountain/Digital Data_YPE58/YPE_PILAdata_Plot_58.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="118">
   <si>
     <t>plotID</t>
   </si>
@@ -369,17 +369,14 @@
     <t>07/11/2023_07/12/2024</t>
   </si>
   <si>
-    <t>use point 47 same clump</t>
-  </si>
-  <si>
-    <t>SD, too old to assess</t>
+    <t>SD, too old to assess, same clump as tree 34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -396,24 +393,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -422,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -436,9 +422,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -989,11 +972,11 @@
       <c r="AP2" s="3">
         <v>19.0</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>71</v>
+      <c r="AQ2" s="3">
+        <v>241805.0</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>4190723.0</v>
       </c>
       <c r="AS2" s="3">
         <v>2.0</v>
@@ -1178,11 +1161,11 @@
       <c r="AP3" s="3">
         <v>20.0</v>
       </c>
-      <c r="AQ3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>71</v>
+      <c r="AQ3" s="3">
+        <v>241801.0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>4190716.0</v>
       </c>
       <c r="AS3" s="3">
         <v>1.0</v>
@@ -1366,11 +1349,11 @@
       <c r="AP4" s="3">
         <v>22.0</v>
       </c>
-      <c r="AQ4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>71</v>
+      <c r="AQ4" s="3">
+        <v>241798.0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>4190707.0</v>
       </c>
       <c r="AS4" s="3">
         <v>1.0</v>
@@ -1554,11 +1537,11 @@
       <c r="AP5" s="3">
         <v>21.0</v>
       </c>
-      <c r="AQ5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>71</v>
+      <c r="AQ5" s="3">
+        <v>241808.0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>4190714.0</v>
       </c>
       <c r="AS5" s="3">
         <v>1.0</v>
@@ -2118,11 +2101,11 @@
       <c r="AP8" s="3">
         <v>24.0</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>71</v>
+      <c r="AQ8" s="3">
+        <v>241787.0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>4190727.0</v>
       </c>
       <c r="AS8" s="3">
         <v>0.0</v>
@@ -2306,11 +2289,11 @@
       <c r="AP9" s="3">
         <v>26.0</v>
       </c>
-      <c r="AQ9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>71</v>
+      <c r="AQ9" s="3">
+        <v>241787.0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>4190723.0</v>
       </c>
       <c r="AS9" s="3">
         <v>5.0</v>
@@ -2494,11 +2477,11 @@
       <c r="AP10" s="3">
         <v>25.0</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>71</v>
+      <c r="AQ10" s="3">
+        <v>241784.0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>4190725.0</v>
       </c>
       <c r="AS10" s="3">
         <v>1.0</v>
@@ -2682,11 +2665,11 @@
       <c r="AP11" s="3">
         <v>27.0</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>71</v>
+      <c r="AQ11" s="3">
+        <v>241751.0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>4190727.0</v>
       </c>
       <c r="AS11" s="3">
         <v>0.0</v>
@@ -3434,11 +3417,11 @@
       <c r="AP15" s="3">
         <v>28.0</v>
       </c>
-      <c r="AQ15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR15" s="3" t="s">
-        <v>71</v>
+      <c r="AQ15" s="3">
+        <v>241756.0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>4190703.0</v>
       </c>
       <c r="AS15" s="3">
         <v>0.0</v>
@@ -3622,11 +3605,11 @@
       <c r="AP16" s="3">
         <v>29.0</v>
       </c>
-      <c r="AQ16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR16" s="3" t="s">
-        <v>71</v>
+      <c r="AQ16" s="3">
+        <v>241754.0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>4190669.0</v>
       </c>
       <c r="AS16" s="3">
         <v>0.0</v>
@@ -3998,11 +3981,11 @@
       <c r="AP18" s="3">
         <v>30.0</v>
       </c>
-      <c r="AQ18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>71</v>
+      <c r="AQ18" s="3">
+        <v>241761.0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>4190664.0</v>
       </c>
       <c r="AS18" s="3">
         <v>5.0</v>
@@ -4562,11 +4545,11 @@
       <c r="AP21" s="3">
         <v>33.0</v>
       </c>
-      <c r="AQ21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR21" s="3" t="s">
-        <v>71</v>
+      <c r="AQ21" s="3">
+        <v>241590.0</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>4190673.0</v>
       </c>
       <c r="AS21" s="3">
         <v>4.0</v>
@@ -4750,11 +4733,11 @@
       <c r="AP22" s="3">
         <v>34.0</v>
       </c>
-      <c r="AQ22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR22" s="3" t="s">
-        <v>71</v>
+      <c r="AQ22" s="3">
+        <v>241646.0</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>4190665.0</v>
       </c>
       <c r="AS22" s="3">
         <v>1.0</v>
@@ -4938,11 +4921,11 @@
       <c r="AP23" s="3">
         <v>35.0</v>
       </c>
-      <c r="AQ23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR23" s="3" t="s">
-        <v>71</v>
+      <c r="AQ23" s="3">
+        <v>241654.0</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>4190690.0</v>
       </c>
       <c r="AS23" s="3">
         <v>4.0</v>
@@ -5126,11 +5109,11 @@
       <c r="AP24" s="3">
         <v>36.0</v>
       </c>
-      <c r="AQ24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR24" s="3" t="s">
-        <v>71</v>
+      <c r="AQ24" s="3">
+        <v>241654.0</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>4190691.0</v>
       </c>
       <c r="AS24" s="3">
         <v>1.0</v>
@@ -5314,11 +5297,11 @@
       <c r="AP25" s="3">
         <v>37.0</v>
       </c>
-      <c r="AQ25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>71</v>
+      <c r="AQ25" s="3">
+        <v>241654.0</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>4190693.0</v>
       </c>
       <c r="AS25" s="3">
         <v>1.0</v>
@@ -5502,11 +5485,11 @@
       <c r="AP26" s="3">
         <v>38.0</v>
       </c>
-      <c r="AQ26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR26" s="3" t="s">
-        <v>71</v>
+      <c r="AQ26" s="3">
+        <v>241652.0</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>4190697.0</v>
       </c>
       <c r="AS26" s="3">
         <v>0.0</v>
@@ -5690,11 +5673,11 @@
       <c r="AP27" s="3">
         <v>39.0</v>
       </c>
-      <c r="AQ27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR27" s="3" t="s">
-        <v>71</v>
+      <c r="AQ27" s="3">
+        <v>241655.0</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>4190698.0</v>
       </c>
       <c r="AS27" s="3">
         <v>0.0</v>
@@ -5878,11 +5861,11 @@
       <c r="AP28" s="3">
         <v>40.0</v>
       </c>
-      <c r="AQ28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR28" s="3" t="s">
-        <v>71</v>
+      <c r="AQ28" s="3">
+        <v>241655.0</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>4190698.0</v>
       </c>
       <c r="AS28" s="3">
         <v>0.0</v>
@@ -6066,11 +6049,11 @@
       <c r="AP29" s="3">
         <v>41.0</v>
       </c>
-      <c r="AQ29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR29" s="3" t="s">
-        <v>71</v>
+      <c r="AQ29" s="3">
+        <v>241656.0</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>4190699.0</v>
       </c>
       <c r="AS29" s="3">
         <v>0.0</v>
@@ -6254,11 +6237,11 @@
       <c r="AP30" s="3">
         <v>42.0</v>
       </c>
-      <c r="AQ30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR30" s="3" t="s">
-        <v>71</v>
+      <c r="AQ30" s="3">
+        <v>241670.0</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>4190697.0</v>
       </c>
       <c r="AS30" s="3">
         <v>4.0</v>
@@ -6442,11 +6425,11 @@
       <c r="AP31" s="3">
         <v>43.0</v>
       </c>
-      <c r="AQ31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR31" s="3" t="s">
-        <v>71</v>
+      <c r="AQ31" s="3">
+        <v>241670.0</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>4190698.0</v>
       </c>
       <c r="AS31" s="3">
         <v>4.0</v>
@@ -6630,11 +6613,11 @@
       <c r="AP32" s="3">
         <v>44.0</v>
       </c>
-      <c r="AQ32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR32" s="3" t="s">
-        <v>71</v>
+      <c r="AQ32" s="3">
+        <v>241670.0</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>4190699.0</v>
       </c>
       <c r="AS32" s="3">
         <v>1.0</v>
@@ -6818,11 +6801,11 @@
       <c r="AP33" s="3">
         <v>45.0</v>
       </c>
-      <c r="AQ33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR33" s="3" t="s">
-        <v>71</v>
+      <c r="AQ33" s="3">
+        <v>241669.0</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>4190696.0</v>
       </c>
       <c r="AS33" s="3">
         <v>0.0</v>
@@ -7006,11 +6989,11 @@
       <c r="AP34" s="3">
         <v>46.0</v>
       </c>
-      <c r="AQ34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR34" s="3" t="s">
-        <v>71</v>
+      <c r="AQ34" s="3">
+        <v>241670.0</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>4190696.0</v>
       </c>
       <c r="AS34" s="3">
         <v>0.0</v>
@@ -7194,11 +7177,11 @@
       <c r="AP35" s="3">
         <v>47.0</v>
       </c>
-      <c r="AQ35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR35" s="3" t="s">
-        <v>71</v>
+      <c r="AQ35" s="3">
+        <v>214670.0</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>4190697.0</v>
       </c>
       <c r="AS35" s="3">
         <v>0.0</v>
@@ -7382,11 +7365,11 @@
       <c r="AP36" s="3">
         <v>48.0</v>
       </c>
-      <c r="AQ36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR36" s="3" t="s">
-        <v>71</v>
+      <c r="AQ36" s="3">
+        <v>241675.0</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>4190695.0</v>
       </c>
       <c r="AS36" s="3">
         <v>0.0</v>
@@ -7570,11 +7553,11 @@
       <c r="AP37" s="3">
         <v>49.0</v>
       </c>
-      <c r="AQ37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR37" s="3" t="s">
-        <v>71</v>
+      <c r="AQ37" s="3">
+        <v>241683.0</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>4190704.0</v>
       </c>
       <c r="AS37" s="3">
         <v>0.0</v>
@@ -7758,11 +7741,11 @@
       <c r="AP38" s="3">
         <v>50.0</v>
       </c>
-      <c r="AQ38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR38" s="3" t="s">
-        <v>71</v>
+      <c r="AQ38" s="3">
+        <v>241682.0</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>4190703.0</v>
       </c>
       <c r="AS38" s="3">
         <v>0.0</v>
@@ -7946,11 +7929,11 @@
       <c r="AP39" s="3">
         <v>52.0</v>
       </c>
-      <c r="AQ39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR39" s="3" t="s">
-        <v>71</v>
+      <c r="AQ39" s="3">
+        <v>241682.0</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>4190702.0</v>
       </c>
       <c r="AS39" s="3">
         <v>1.0</v>
@@ -8134,11 +8117,11 @@
       <c r="AP40" s="3">
         <v>51.0</v>
       </c>
-      <c r="AQ40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR40" s="3" t="s">
-        <v>71</v>
+      <c r="AQ40" s="3">
+        <v>241685.0</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>4190701.0</v>
       </c>
       <c r="AS40" s="3">
         <v>1.0</v>
@@ -8322,11 +8305,11 @@
       <c r="AP41" s="3">
         <v>54.0</v>
       </c>
-      <c r="AQ41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR41" s="3" t="s">
-        <v>71</v>
+      <c r="AQ41" s="3">
+        <v>241685.0</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>4190693.0</v>
       </c>
       <c r="AS41" s="3">
         <v>0.0</v>
@@ -8510,11 +8493,11 @@
       <c r="AP42" s="3">
         <v>55.0</v>
       </c>
-      <c r="AQ42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR42" s="3" t="s">
-        <v>71</v>
+      <c r="AQ42" s="3">
+        <v>241685.0</v>
+      </c>
+      <c r="AR42" s="3">
+        <v>4190693.0</v>
       </c>
       <c r="AS42" s="3">
         <v>4.0</v>
@@ -8698,11 +8681,11 @@
       <c r="AP43" s="3">
         <v>53.0</v>
       </c>
-      <c r="AQ43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR43" s="3" t="s">
-        <v>71</v>
+      <c r="AQ43" s="3">
+        <v>241686.0</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>4190704.0</v>
       </c>
       <c r="AS43" s="3">
         <v>0.0</v>
@@ -8886,11 +8869,11 @@
       <c r="AP44" s="3">
         <v>47.0</v>
       </c>
-      <c r="AQ44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR44" s="5" t="s">
-        <v>117</v>
+      <c r="AQ44" s="3">
+        <v>214670.0</v>
+      </c>
+      <c r="AR44" s="3">
+        <v>4190697.0</v>
       </c>
       <c r="AS44" s="3">
         <v>0.0</v>
@@ -8944,7 +8927,7 @@
         <v>0.0</v>
       </c>
       <c r="BJ44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
